--- a/ExcleToolProject/tables/Shop.xlsx
+++ b/ExcleToolProject/tables/Shop.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\策划\AA配置表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990E04E7-E41C-4E2D-A44F-CB47D6D9C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="32670" yWindow="2355" windowWidth="22575" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{8D8315A3-B0C2-47B5-8CDA-93BD48914BDE}">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:
@@ -41,15 +33,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{A0930F1B-E585-4D41-BB62-7EB6C0C196A3}">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -57,9 +47,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -68,15 +56,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{88510F44-F95F-4420-8046-85CB69CAD52C}">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -84,9 +70,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -94,15 +78,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{E439DC39-6F4C-446F-B024-B5573BC0888E}">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -110,9 +92,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -120,15 +100,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{8F84370E-2EA8-462B-AC1C-B0454D0EFFDF}">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -136,9 +114,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -148,15 +124,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{FD8E56EB-3D3E-4ADE-B6CA-2881C0A46773}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -164,9 +138,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -174,15 +146,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{945D8DE4-F4AE-4E9D-8479-816C6DA0A7E9}">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -190,9 +160,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -201,262 +169,368 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{7C129DCC-D9EF-41E1-B108-6708DA4E2599}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-图片资源</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Tap</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Descs</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>RandCounts</t>
+  </si>
+  <si>
+    <t>AutoFresh</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>TapIcon</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>string[][]</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>int[][]</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>float[][]</t>
+  </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
   </si>
   <si>
     <t>商店ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店名字</t>
+  </si>
+  <si>
+    <t>商店切页</t>
   </si>
   <si>
     <t>商店类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店解锁等级</t>
+  </si>
+  <si>
+    <t>商店货币</t>
+  </si>
+  <si>
+    <t>随机商品数量</t>
+  </si>
+  <si>
+    <t>自动刷新</t>
   </si>
   <si>
     <t>商店门票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机商品数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店解锁等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandCounts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店切页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页签图标</t>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_name_1001</t>
+  </si>
+  <si>
+    <t>q,w,e,r</t>
+  </si>
+  <si>
+    <t>a,b,c;d,e,f</t>
+  </si>
+  <si>
+    <t>2,2,2</t>
+  </si>
+  <si>
+    <t>1;3;5</t>
+  </si>
+  <si>
+    <t>0.5,0.8</t>
+  </si>
+  <si>
+    <t>0.5;0.6;1.2</t>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_name_1002</t>
+  </si>
+  <si>
+    <t>2,2,3</t>
+  </si>
+  <si>
+    <t>1;3;6</t>
+  </si>
+  <si>
+    <t>0.5,0.9</t>
+  </si>
+  <si>
+    <t>0.5;0.6;1.3</t>
   </si>
   <si>
     <t>金币商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_name_1003</t>
+  </si>
+  <si>
+    <t>2,2,4</t>
+  </si>
+  <si>
+    <t>1;3;7</t>
+  </si>
+  <si>
+    <t>0.5,1.2</t>
+  </si>
+  <si>
+    <t>0.5;0.6;1.4</t>
   </si>
   <si>
     <t>钻石商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_name_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_name_1002</t>
-  </si>
-  <si>
-    <t>shop_name_1003</t>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoFresh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TapIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页签图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uishop_icon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uishop_icon_2</t>
-  </si>
-  <si>
-    <t>uishop_icon_3</t>
+  </si>
+  <si>
+    <t>shop_name_1004</t>
+  </si>
+  <si>
+    <t>shop_name_1005</t>
+  </si>
+  <si>
+    <t>shop_name_1006</t>
+  </si>
+  <si>
+    <t>shop_name_1007</t>
+  </si>
+  <si>
+    <t>shop_name_1008</t>
+  </si>
+  <si>
+    <t>shop_name_1009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,18 +539,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -484,9 +744,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -497,32 +999,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF99CCFF"/>
+      <color rgb="0099CCFF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -809,157 +1355,151 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
     <col min="7" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -970,149 +1510,344 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>100.4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I5">
-        <v>1004</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>29</v>
+      <c r="L5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>41</v>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="I6">
-        <v>1001</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="2" t="s">
+        <v>100.1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>30</v>
+      <c r="L6" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7">
+      <c r="G7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>100.2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:12">
+      <c r="A8">
+        <v>1004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>100.4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:12">
+      <c r="A9">
+        <v>1005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>1002</v>
-      </c>
-      <c r="J7">
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9">
+        <v>100.1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:12">
+      <c r="A10">
+        <v>1006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>100.2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:12">
+      <c r="A11">
+        <v>1007</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>100.4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:12">
+      <c r="A12">
+        <v>1008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <v>100.1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+    <row r="13" customFormat="1" spans="1:12">
+      <c r="A13">
+        <v>1009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>100.2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.15">
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+    <row r="19" spans="9:10">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>